--- a/Data/Input/Route Tracker-Input.xlsx
+++ b/Data/Input/Route Tracker-Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Capstone_4\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756B94E1-870B-4C06-B35D-52B619F8D154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF08B581-A094-4E79-86CC-893123DB1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
   </bookViews>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,6 +1005,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="b4edf56a-5a91-48ff-919c-183254b0e511">
@@ -1017,15 +1026,6 @@
     <Identityname xmlns="b4edf56a-5a91-48ff-919c-183254b0e511" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,6 +1048,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B4F16ED-35BE-4CA7-A0E3-7157B8EA912C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E83802A-3FB8-46C7-A352-04D323F684A2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1056,12 +1064,4 @@
     <ds:schemaRef ds:uri="6a1fcef9-8c1c-4c75-859d-d52abd477b99"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B4F16ED-35BE-4CA7-A0E3-7157B8EA912C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data/Input/Route Tracker-Input.xlsx
+++ b/Data/Input/Route Tracker-Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shireen.M\Documents\UiPath\Capstone_4\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF08B581-A094-4E79-86CC-893123DB1CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950D58F-6983-4F75-B57F-675674B601E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="18000" windowHeight="9360" xr2:uid="{7E52CB5C-B483-4043-9A63-8A600E7364F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -479,7 +479,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
